--- a/extra_documentation/Codifiers.xlsx
+++ b/extra_documentation/Codifiers.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriela Barajas\Desktop\01 APFutura\01 APXGIS\08 DOCUSAURUS\testing-one\extra_documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A23660-55A0-4C85-9AD8-02E40D23C3A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42585A17-3E0B-4227-BA15-82D1216E1DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13920" yWindow="-1020" windowWidth="14535" windowHeight="15510" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codifiers" sheetId="2" r:id="rId1"/>
+    <sheet name="Params drpdwn" sheetId="5" r:id="rId2"/>
+    <sheet name="Param_elements" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Codifiers!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Param_elements!$A$2:$F$67</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="116">
   <si>
     <t>Codifier</t>
   </si>
@@ -153,13 +156,247 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>cpd</t>
+  </si>
+  <si>
+    <t>fillLocationAuto</t>
+  </si>
+  <si>
+    <t>form_children_elements_title</t>
+  </si>
+  <si>
+    <t>Joints/OLTs</t>
+  </si>
+  <si>
+    <t>form_children_element_types</t>
+  </si>
+  <si>
+    <t>splicebox,olt</t>
+  </si>
+  <si>
+    <t>form_hide_manhole_details</t>
+  </si>
+  <si>
+    <t>form_hide_microducts</t>
+  </si>
+  <si>
+    <t>form_hide_subduct_interconnections</t>
+  </si>
+  <si>
+    <t>show_manhole_ufields</t>
+  </si>
+  <si>
+    <t>showProjects</t>
+  </si>
+  <si>
+    <t>Element type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name </t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Params</t>
+  </si>
+  <si>
+    <t>building</t>
+  </si>
+  <si>
+    <t>Polygon</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>Cabinet</t>
+  </si>
+  <si>
+    <t>node</t>
+  </si>
+  <si>
+    <t>b2b_ground_node</t>
+  </si>
+  <si>
+    <t>Node</t>
+  </si>
+  <si>
+    <t>Central Node</t>
+  </si>
+  <si>
+    <t>Joints/Splitter Boxes</t>
+  </si>
+  <si>
+    <t>form_children_networkclient_types_source</t>
+  </si>
+  <si>
+    <t>manhole</t>
+  </si>
+  <si>
+    <t>splicebox,distributionpoint</t>
+  </si>
+  <si>
+    <t>Chamber</t>
+  </si>
+  <si>
+    <t>form_hide_elements</t>
+  </si>
+  <si>
+    <t>form_hide_fiber_interconnections</t>
+  </si>
+  <si>
+    <t>form_hide_networkclients</t>
+  </si>
+  <si>
+    <t>Change of State</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>construct</t>
+  </si>
+  <si>
+    <t>Construct</t>
+  </si>
+  <si>
+    <t>Duct</t>
+  </si>
+  <si>
+    <t>canalization</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Duct tee</t>
+  </si>
+  <si>
+    <t>facade_line</t>
+  </si>
+  <si>
+    <t>Facade line</t>
+  </si>
+  <si>
+    <t>cable</t>
+  </si>
+  <si>
+    <t>Fibre Cable</t>
+  </si>
+  <si>
+    <t>splicebox</t>
+  </si>
+  <si>
+    <t>Joint</t>
+  </si>
+  <si>
+    <t>Jointing chamber</t>
+  </si>
+  <si>
+    <t>microduct</t>
+  </si>
+  <si>
+    <t>Microduct</t>
+  </si>
+  <si>
+    <t>olt</t>
+  </si>
+  <si>
+    <t>OLT Cabinet</t>
+  </si>
+  <si>
+    <t>parcela</t>
+  </si>
+  <si>
+    <t>Parcel</t>
+  </si>
+  <si>
+    <t>pole</t>
+  </si>
+  <si>
+    <t>Pole</t>
+  </si>
+  <si>
+    <t>connect_b2b_route_by_range</t>
+  </si>
+  <si>
+    <t>Split coupling</t>
+  </si>
+  <si>
+    <t>distributionpoint</t>
+  </si>
+  <si>
+    <t>Splitter Box</t>
+  </si>
+  <si>
+    <t>subduct</t>
+  </si>
+  <si>
+    <t>Subduct</t>
+  </si>
+  <si>
+    <t>uprn</t>
+  </si>
+  <si>
+    <t>UPRN</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Unspecified manhole</t>
+  </si>
+  <si>
+    <t>hideDocuments</t>
+  </si>
+  <si>
+    <t>addMenuSed</t>
+  </si>
+  <si>
+    <t>showNetworkclients</t>
+  </si>
+  <si>
+    <t>networkClientType</t>
+  </si>
+  <si>
+    <t>form_hide_fiber_interconections</t>
+  </si>
+  <si>
+    <t>form_hide_subduct_interconections</t>
+  </si>
+  <si>
+    <t>Params dropdown</t>
+  </si>
+  <si>
+    <t>b2b_structure_node</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,8 +416,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,6 +447,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -271,6 +522,21 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
@@ -992,4 +1258,1550 @@
   <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFBBCE8-D067-4063-85B5-F7FF6B691D38}">
+  <dimension ref="B1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.08984375" customWidth="1"/>
+    <col min="2" max="2" width="32.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B1" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60209DD-C270-4B3E-9E34-9529D4BAF056}">
+  <dimension ref="A1:F67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A68" sqref="A68:XFD104"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.453125" customWidth="1"/>
+    <col min="2" max="2" width="21.36328125" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.26953125" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <f t="shared" ref="A4:A67" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" t="s">
+        <v>58</v>
+      </c>
+      <c r="F47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" t="s">
+        <v>42</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" t="s">
+        <v>93</v>
+      </c>
+      <c r="E49" t="s">
+        <v>40</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" t="s">
+        <v>93</v>
+      </c>
+      <c r="E50" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" t="s">
+        <v>95</v>
+      </c>
+      <c r="E51" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" t="s">
+        <v>97</v>
+      </c>
+      <c r="E52" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" t="s">
+        <v>42</v>
+      </c>
+      <c r="F53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E54" t="s">
+        <v>47</v>
+      </c>
+      <c r="F54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" t="s">
+        <v>97</v>
+      </c>
+      <c r="E55" t="s">
+        <v>50</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" t="s">
+        <v>97</v>
+      </c>
+      <c r="E56" t="s">
+        <v>98</v>
+      </c>
+      <c r="F56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" t="s">
+        <v>97</v>
+      </c>
+      <c r="E57" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" t="s">
+        <v>64</v>
+      </c>
+      <c r="D58" t="s">
+        <v>97</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59" t="s">
+        <v>47</v>
+      </c>
+      <c r="F59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" t="s">
+        <v>99</v>
+      </c>
+      <c r="E60" t="s">
+        <v>42</v>
+      </c>
+      <c r="F60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>99</v>
+      </c>
+      <c r="C61" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" t="s">
+        <v>99</v>
+      </c>
+      <c r="E61" t="s">
+        <v>63</v>
+      </c>
+      <c r="F61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" t="s">
+        <v>101</v>
+      </c>
+      <c r="E62" t="s">
+        <v>42</v>
+      </c>
+      <c r="F62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" t="s">
+        <v>101</v>
+      </c>
+      <c r="E63" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" t="s">
+        <v>103</v>
+      </c>
+      <c r="E64" t="s">
+        <v>58</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>104</v>
+      </c>
+      <c r="C65" t="s">
+        <v>64</v>
+      </c>
+      <c r="D65" t="s">
+        <v>105</v>
+      </c>
+      <c r="E65" t="s">
+        <v>58</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" t="s">
+        <v>107</v>
+      </c>
+      <c r="E66" t="s">
+        <v>42</v>
+      </c>
+      <c r="F66" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>106</v>
+      </c>
+      <c r="C67" t="s">
+        <v>64</v>
+      </c>
+      <c r="D67" t="s">
+        <v>107</v>
+      </c>
+      <c r="E67" t="s">
+        <v>47</v>
+      </c>
+      <c r="F67" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:F67" xr:uid="{A60209DD-C270-4B3E-9E34-9529D4BAF056}"/>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/extra_documentation/Codifiers.xlsx
+++ b/extra_documentation/Codifiers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriela Barajas\Desktop\01 APFutura\01 APXGIS\08 DOCUSAURUS\testing-one\extra_documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42585A17-3E0B-4227-BA15-82D1216E1DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F5616A-D165-499E-9BB7-EDB9B0F648CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13920" yWindow="-1020" windowWidth="14535" windowHeight="15510" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codifiers" sheetId="2" r:id="rId1"/>
@@ -526,16 +526,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1387,7 +1387,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A68" sqref="A68:XFD104"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1401,33 +1401,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="11" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="11"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="11" t="s">
         <v>39</v>
       </c>
     </row>

--- a/extra_documentation/Codifiers.xlsx
+++ b/extra_documentation/Codifiers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriela Barajas\Desktop\01 APFutura\01 APXGIS\08 DOCUSAURUS\testing-one\extra_documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc1da2a02662a9c5/Desktop/01 APFUTURA/01 APXGIS/08 DOCUSAURUS/testing-one/extra_documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F5616A-D165-499E-9BB7-EDB9B0F648CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{87F5616A-D165-499E-9BB7-EDB9B0F648CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AFD30D4-A361-4B2B-83C6-0D8FF1F62F4F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14610" yWindow="-885" windowWidth="14400" windowHeight="15285" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codifiers" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="128">
   <si>
     <t>Codifier</t>
   </si>
@@ -152,9 +152,6 @@
     <t>#</t>
   </si>
   <si>
-    <t>Short Description</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -390,13 +387,52 @@
   </si>
   <si>
     <t>b2b_structure_node</t>
+  </si>
+  <si>
+    <t>Access through</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Fibre Cable element window &gt; Cable Details</t>
+  </si>
+  <si>
+    <t>Central node element window &gt; Details</t>
+  </si>
+  <si>
+    <t>Chamber element window &gt; Details</t>
+  </si>
+  <si>
+    <t>Element type window &gt; Status</t>
+  </si>
+  <si>
+    <t>Joint element window &gt;Joint Details</t>
+  </si>
+  <si>
+    <t>OLT Cabinet element window &gt; Olt Details</t>
+  </si>
+  <si>
+    <t>Pole element type window &gt; Pole Details</t>
+  </si>
+  <si>
+    <t>Proyect window (Administration &gt;Projects&gt;Project name &gt; Status</t>
+  </si>
+  <si>
+    <t>Proyect window (Administration &gt;Projects&gt;Add) &gt; Type</t>
+  </si>
+  <si>
+    <t>Splitter box element window &gt; Manufacturer</t>
+  </si>
+  <si>
+    <t>Splitter box element window &gt; Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,6 +459,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -508,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -537,6 +579,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,9 +601,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -595,7 +641,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -701,7 +747,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -843,7 +889,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -857,13 +903,13 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomRight" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="31.90625" customWidth="1"/>
-    <col min="3" max="3" width="43.453125" customWidth="1"/>
+    <col min="3" max="3" width="60.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.7265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -875,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -888,7 +934,9 @@
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="14" t="s">
+        <v>116</v>
+      </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -899,7 +947,9 @@
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="14" t="s">
+        <v>116</v>
+      </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -910,7 +960,9 @@
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="14" t="s">
+        <v>116</v>
+      </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -921,7 +973,9 @@
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="14" t="s">
+        <v>116</v>
+      </c>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -932,7 +986,9 @@
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="14" t="s">
+        <v>116</v>
+      </c>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -943,7 +999,9 @@
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="14" t="s">
+        <v>117</v>
+      </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -954,7 +1012,9 @@
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="14" t="s">
+        <v>117</v>
+      </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -965,7 +1025,9 @@
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="14" t="s">
+        <v>117</v>
+      </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -976,7 +1038,7 @@
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -987,7 +1049,9 @@
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="14" t="s">
+        <v>118</v>
+      </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -998,7 +1062,9 @@
       <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="14" t="s">
+        <v>116</v>
+      </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -1009,7 +1075,9 @@
       <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="14" t="s">
+        <v>119</v>
+      </c>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -1020,7 +1088,9 @@
       <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="14" t="s">
+        <v>119</v>
+      </c>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -1031,7 +1101,9 @@
       <c r="B15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="14" t="s">
+        <v>119</v>
+      </c>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -1042,7 +1114,9 @@
       <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="14" t="s">
+        <v>116</v>
+      </c>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -1053,7 +1127,9 @@
       <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -1064,7 +1140,9 @@
       <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="14" t="s">
+        <v>121</v>
+      </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -1075,7 +1153,9 @@
       <c r="B19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="14" t="s">
+        <v>121</v>
+      </c>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -1086,7 +1166,9 @@
       <c r="B20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="14" t="s">
+        <v>121</v>
+      </c>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -1097,7 +1179,9 @@
       <c r="B21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="15" t="s">
+        <v>122</v>
+      </c>
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -1108,7 +1192,9 @@
       <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="15" t="s">
+        <v>122</v>
+      </c>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -1119,7 +1205,9 @@
       <c r="B23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -1130,7 +1218,9 @@
       <c r="B24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -1141,7 +1231,9 @@
       <c r="B25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -1152,7 +1244,9 @@
       <c r="B26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="14" t="s">
+        <v>124</v>
+      </c>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -1163,7 +1257,9 @@
       <c r="B27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="14" t="s">
+        <v>125</v>
+      </c>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -1174,7 +1270,9 @@
       <c r="B28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="14" t="s">
+        <v>126</v>
+      </c>
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -1185,7 +1283,9 @@
       <c r="B29" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="14" t="s">
+        <v>127</v>
+      </c>
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -1196,7 +1296,9 @@
       <c r="B30" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="14" t="s">
+        <v>116</v>
+      </c>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -1207,7 +1309,9 @@
       <c r="B31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="14" t="s">
+        <v>116</v>
+      </c>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -1218,7 +1322,9 @@
       <c r="B32" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="14" t="s">
+        <v>116</v>
+      </c>
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -1229,7 +1335,9 @@
       <c r="B33" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="4"/>
+      <c r="C33" s="14" t="s">
+        <v>116</v>
+      </c>
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -1240,7 +1348,9 @@
       <c r="B34" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="4"/>
+      <c r="C34" s="14" t="s">
+        <v>116</v>
+      </c>
       <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -1251,7 +1361,9 @@
       <c r="B35" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="4"/>
+      <c r="C35" s="14" t="s">
+        <v>116</v>
+      </c>
       <c r="D35" s="4"/>
     </row>
   </sheetData>
@@ -1271,107 +1383,107 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6.08984375" customWidth="1"/>
-    <col min="2" max="2" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1381,13 +1493,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60209DD-C270-4B3E-9E34-9529D4BAF056}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1402,12 +1515,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F1" s="13"/>
     </row>
@@ -1416,670 +1529,670 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="D2" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
         <v>56</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
         <v>57</v>
       </c>
-      <c r="D3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" t="s">
-        <v>58</v>
-      </c>
       <c r="F3" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
         <v>64</v>
       </c>
-      <c r="D4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="F9" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
         <v>64</v>
       </c>
-      <c r="D5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
         <v>64</v>
       </c>
-      <c r="D6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="E11" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" t="s">
-        <v>47</v>
       </c>
       <c r="F11" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
         <v>64</v>
       </c>
-      <c r="D12" t="s">
-        <v>65</v>
-      </c>
       <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="F13" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
         <v>64</v>
       </c>
-      <c r="D13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>49</v>
-      </c>
-      <c r="F13" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" t="s">
-        <v>50</v>
       </c>
       <c r="F14" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
         <v>64</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F18" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" t="s">
+    </row>
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" t="s">
         <v>70</v>
       </c>
-      <c r="E23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="F25" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" t="s">
         <v>71</v>
       </c>
-      <c r="F25" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" t="s">
-        <v>72</v>
-      </c>
       <c r="F26" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F27" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
         <v>74</v>
       </c>
-      <c r="C28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" t="s">
-        <v>49</v>
-      </c>
-      <c r="F30" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
         <v>75</v>
       </c>
-      <c r="C32" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
         <v>76</v>
       </c>
-      <c r="E32" t="s">
-        <v>58</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
         <v>77</v>
       </c>
-      <c r="C33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" t="s">
-        <v>78</v>
-      </c>
       <c r="E33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -2088,16 +2201,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" t="s">
         <v>80</v>
       </c>
-      <c r="C34" t="s">
-        <v>81</v>
-      </c>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F34" s="7" t="b">
         <v>0</v>
@@ -2109,695 +2222,701 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" t="s">
         <v>80</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
         <v>81</v>
       </c>
-      <c r="D35" t="s">
-        <v>79</v>
-      </c>
-      <c r="E35" t="s">
-        <v>40</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>82</v>
-      </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" t="s">
         <v>83</v>
       </c>
-      <c r="C38" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" t="s">
-        <v>84</v>
-      </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F38" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" t="s">
-        <v>84</v>
-      </c>
       <c r="E39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" t="s">
         <v>85</v>
       </c>
-      <c r="C40" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" t="s">
-        <v>86</v>
-      </c>
       <c r="E40" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" t="s">
-        <v>81</v>
-      </c>
-      <c r="D41" t="s">
-        <v>86</v>
-      </c>
       <c r="E41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" t="s">
         <v>87</v>
       </c>
-      <c r="C42" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
         <v>88</v>
       </c>
-      <c r="E42" t="s">
-        <v>42</v>
-      </c>
-      <c r="F42" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" t="s">
-        <v>64</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="C44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" t="s">
         <v>88</v>
       </c>
-      <c r="E43" t="s">
-        <v>40</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" t="s">
-        <v>89</v>
-      </c>
       <c r="E44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F44" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" t="s">
+        <v>62</v>
+      </c>
+      <c r="F46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
         <v>89</v>
       </c>
-      <c r="C46" t="s">
-        <v>64</v>
-      </c>
-      <c r="D46" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" t="s">
-        <v>63</v>
-      </c>
-      <c r="F46" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" t="s">
         <v>90</v>
       </c>
-      <c r="C47" t="s">
-        <v>81</v>
-      </c>
-      <c r="D47" t="s">
-        <v>91</v>
-      </c>
       <c r="E47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" t="s">
         <v>92</v>
       </c>
-      <c r="C49" t="s">
-        <v>64</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
+        <v>39</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
         <v>93</v>
       </c>
-      <c r="E49" t="s">
-        <v>40</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <f t="shared" si="0"/>
+      <c r="C51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" t="s">
+        <v>57</v>
+      </c>
+      <c r="F51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" t="s">
+        <v>96</v>
+      </c>
+      <c r="E52" t="s">
+        <v>39</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" t="s">
+        <v>41</v>
+      </c>
+      <c r="F53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" t="s">
+        <v>96</v>
+      </c>
+      <c r="E54" t="s">
+        <v>46</v>
+      </c>
+      <c r="F54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" t="s">
+        <v>96</v>
+      </c>
+      <c r="E55" t="s">
         <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>92</v>
-      </c>
-      <c r="C50" t="s">
-        <v>64</v>
-      </c>
-      <c r="D50" t="s">
-        <v>93</v>
-      </c>
-      <c r="E50" t="s">
-        <v>42</v>
-      </c>
-      <c r="F50" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>94</v>
-      </c>
-      <c r="C51" t="s">
-        <v>64</v>
-      </c>
-      <c r="D51" t="s">
-        <v>95</v>
-      </c>
-      <c r="E51" t="s">
-        <v>58</v>
-      </c>
-      <c r="F51" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52" t="s">
-        <v>64</v>
-      </c>
-      <c r="D52" t="s">
-        <v>97</v>
-      </c>
-      <c r="E52" t="s">
-        <v>40</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>96</v>
-      </c>
-      <c r="C53" t="s">
-        <v>64</v>
-      </c>
-      <c r="D53" t="s">
-        <v>97</v>
-      </c>
-      <c r="E53" t="s">
-        <v>42</v>
-      </c>
-      <c r="F53" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>96</v>
-      </c>
-      <c r="C54" t="s">
-        <v>64</v>
-      </c>
-      <c r="D54" t="s">
-        <v>97</v>
-      </c>
-      <c r="E54" t="s">
-        <v>47</v>
-      </c>
-      <c r="F54" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>96</v>
-      </c>
-      <c r="C55" t="s">
-        <v>64</v>
-      </c>
-      <c r="D55" t="s">
-        <v>97</v>
-      </c>
-      <c r="E55" t="s">
-        <v>50</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B56" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" t="s">
         <v>96</v>
       </c>
-      <c r="C56" t="s">
+      <c r="E56" t="s">
+        <v>97</v>
+      </c>
+      <c r="F56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>95</v>
+      </c>
+      <c r="C57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" t="s">
+        <v>96</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" t="s">
+        <v>96</v>
+      </c>
+      <c r="E58" t="s">
+        <v>42</v>
+      </c>
+      <c r="F58" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" t="s">
+        <v>98</v>
+      </c>
+      <c r="E59" t="s">
+        <v>46</v>
+      </c>
+      <c r="F59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" t="s">
+        <v>98</v>
+      </c>
+      <c r="E60" t="s">
+        <v>41</v>
+      </c>
+      <c r="F60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" t="s">
+        <v>98</v>
+      </c>
+      <c r="E61" t="s">
+        <v>62</v>
+      </c>
+      <c r="F61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>99</v>
+      </c>
+      <c r="C62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" t="s">
+        <v>100</v>
+      </c>
+      <c r="E62" t="s">
+        <v>41</v>
+      </c>
+      <c r="F62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>99</v>
+      </c>
+      <c r="C63" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63" t="s">
+        <v>100</v>
+      </c>
+      <c r="E63" t="s">
+        <v>39</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" t="s">
+        <v>102</v>
+      </c>
+      <c r="E64" t="s">
+        <v>57</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="D56" t="s">
-        <v>97</v>
-      </c>
-      <c r="E56" t="s">
-        <v>98</v>
-      </c>
-      <c r="F56" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>96</v>
-      </c>
-      <c r="C57" t="s">
-        <v>64</v>
-      </c>
-      <c r="D57" t="s">
-        <v>97</v>
-      </c>
-      <c r="E57" t="s">
-        <v>45</v>
-      </c>
-      <c r="F57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <f t="shared" si="0"/>
+      <c r="B65" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" t="s">
+        <v>104</v>
+      </c>
+      <c r="E65" t="s">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
-        <v>96</v>
-      </c>
-      <c r="C58" t="s">
-        <v>64</v>
-      </c>
-      <c r="D58" t="s">
-        <v>97</v>
-      </c>
-      <c r="E58" t="s">
-        <v>43</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="F65" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>105</v>
+      </c>
+      <c r="C66" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" t="s">
+        <v>106</v>
+      </c>
+      <c r="E66" t="s">
+        <v>41</v>
+      </c>
+      <c r="F66" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>99</v>
-      </c>
-      <c r="C59" t="s">
-        <v>64</v>
-      </c>
-      <c r="D59" t="s">
-        <v>99</v>
-      </c>
-      <c r="E59" t="s">
-        <v>47</v>
-      </c>
-      <c r="F59" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>99</v>
-      </c>
-      <c r="C60" t="s">
-        <v>64</v>
-      </c>
-      <c r="D60" t="s">
-        <v>99</v>
-      </c>
-      <c r="E60" t="s">
-        <v>42</v>
-      </c>
-      <c r="F60" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>99</v>
-      </c>
-      <c r="C61" t="s">
-        <v>64</v>
-      </c>
-      <c r="D61" t="s">
-        <v>99</v>
-      </c>
-      <c r="E61" t="s">
-        <v>63</v>
-      </c>
-      <c r="F61" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>100</v>
-      </c>
-      <c r="C62" t="s">
-        <v>64</v>
-      </c>
-      <c r="D62" t="s">
-        <v>101</v>
-      </c>
-      <c r="E62" t="s">
-        <v>42</v>
-      </c>
-      <c r="F62" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>100</v>
-      </c>
-      <c r="C63" t="s">
-        <v>64</v>
-      </c>
-      <c r="D63" t="s">
-        <v>101</v>
-      </c>
-      <c r="E63" t="s">
-        <v>40</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>102</v>
-      </c>
-      <c r="C64" t="s">
-        <v>81</v>
-      </c>
-      <c r="D64" t="s">
-        <v>103</v>
-      </c>
-      <c r="E64" t="s">
-        <v>58</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>104</v>
-      </c>
-      <c r="C65" t="s">
-        <v>64</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="B67" t="s">
         <v>105</v>
       </c>
-      <c r="E65" t="s">
-        <v>58</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="C67" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" t="s">
         <v>106</v>
       </c>
-      <c r="C66" t="s">
-        <v>64</v>
-      </c>
-      <c r="D66" t="s">
-        <v>107</v>
-      </c>
-      <c r="E66" t="s">
-        <v>42</v>
-      </c>
-      <c r="F66" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>106</v>
-      </c>
-      <c r="C67" t="s">
-        <v>64</v>
-      </c>
-      <c r="D67" t="s">
-        <v>107</v>
-      </c>
       <c r="E67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F67" s="7" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:F67" xr:uid="{A60209DD-C270-4B3E-9E34-9529D4BAF056}"/>
+  <autoFilter ref="A2:F67" xr:uid="{A60209DD-C270-4B3E-9E34-9529D4BAF056}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Duct"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:F1"/>

--- a/extra_documentation/Codifiers.xlsx
+++ b/extra_documentation/Codifiers.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{87F5616A-D165-499E-9BB7-EDB9B0F648CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AFD30D4-A361-4B2B-83C6-0D8FF1F62F4F}"/>
   <bookViews>
-    <workbookView xWindow="-14610" yWindow="-885" windowWidth="14400" windowHeight="15285" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codifiers" sheetId="2" r:id="rId1"/>
@@ -573,15 +573,15 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,6 +598,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -899,11 +903,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C41" sqref="C41"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -934,7 +938,7 @@
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>116</v>
       </c>
       <c r="D2" s="2"/>
@@ -947,7 +951,7 @@
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>116</v>
       </c>
       <c r="D3" s="4"/>
@@ -960,7 +964,7 @@
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>116</v>
       </c>
       <c r="D4" s="4"/>
@@ -973,7 +977,7 @@
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>116</v>
       </c>
       <c r="D5" s="4"/>
@@ -986,7 +990,7 @@
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>116</v>
       </c>
       <c r="D6" s="4"/>
@@ -999,7 +1003,7 @@
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>117</v>
       </c>
       <c r="D7" s="4"/>
@@ -1012,7 +1016,7 @@
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>117</v>
       </c>
       <c r="D8" s="4"/>
@@ -1025,7 +1029,7 @@
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>117</v>
       </c>
       <c r="D9" s="4"/>
@@ -1038,7 +1042,7 @@
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -1049,7 +1053,7 @@
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>118</v>
       </c>
       <c r="D11" s="4"/>
@@ -1062,7 +1066,7 @@
       <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>116</v>
       </c>
       <c r="D12" s="4"/>
@@ -1075,7 +1079,7 @@
       <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D13" s="4"/>
@@ -1088,7 +1092,7 @@
       <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D14" s="4"/>
@@ -1101,7 +1105,7 @@
       <c r="B15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D15" s="4"/>
@@ -1114,7 +1118,7 @@
       <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="12" t="s">
         <v>116</v>
       </c>
       <c r="D16" s="4"/>
@@ -1127,7 +1131,7 @@
       <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="12" t="s">
         <v>120</v>
       </c>
       <c r="D17" s="4"/>
@@ -1140,7 +1144,7 @@
       <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="12" t="s">
         <v>121</v>
       </c>
       <c r="D18" s="4"/>
@@ -1153,7 +1157,7 @@
       <c r="B19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="12" t="s">
         <v>121</v>
       </c>
       <c r="D19" s="4"/>
@@ -1166,7 +1170,7 @@
       <c r="B20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="12" t="s">
         <v>121</v>
       </c>
       <c r="D20" s="4"/>
@@ -1179,7 +1183,7 @@
       <c r="B21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="13" t="s">
         <v>122</v>
       </c>
       <c r="D21" s="4"/>
@@ -1192,7 +1196,7 @@
       <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="13" t="s">
         <v>122</v>
       </c>
       <c r="D22" s="4"/>
@@ -1205,7 +1209,7 @@
       <c r="B23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="12" t="s">
         <v>123</v>
       </c>
       <c r="D23" s="4"/>
@@ -1218,7 +1222,7 @@
       <c r="B24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="12" t="s">
         <v>123</v>
       </c>
       <c r="D24" s="4"/>
@@ -1231,7 +1235,7 @@
       <c r="B25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="12" t="s">
         <v>123</v>
       </c>
       <c r="D25" s="4"/>
@@ -1244,7 +1248,7 @@
       <c r="B26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D26" s="4"/>
@@ -1257,7 +1261,7 @@
       <c r="B27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="12" t="s">
         <v>125</v>
       </c>
       <c r="D27" s="4"/>
@@ -1270,7 +1274,7 @@
       <c r="B28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="12" t="s">
         <v>126</v>
       </c>
       <c r="D28" s="4"/>
@@ -1283,7 +1287,7 @@
       <c r="B29" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="12" t="s">
         <v>127</v>
       </c>
       <c r="D29" s="4"/>
@@ -1296,7 +1300,7 @@
       <c r="B30" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="12" t="s">
         <v>116</v>
       </c>
       <c r="D30" s="4"/>
@@ -1309,7 +1313,7 @@
       <c r="B31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="12" t="s">
         <v>116</v>
       </c>
       <c r="D31" s="4"/>
@@ -1322,7 +1326,7 @@
       <c r="B32" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="12" t="s">
         <v>116</v>
       </c>
       <c r="D32" s="4"/>
@@ -1335,7 +1339,7 @@
       <c r="B33" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="12" t="s">
         <v>116</v>
       </c>
       <c r="D33" s="4"/>
@@ -1348,7 +1352,7 @@
       <c r="B34" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="12" t="s">
         <v>116</v>
       </c>
       <c r="D34" s="4"/>
@@ -1361,7 +1365,7 @@
       <c r="B35" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="12" t="s">
         <v>116</v>
       </c>
       <c r="D35" s="4"/>
@@ -1496,11 +1500,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
+      <selection pane="bottomRight" activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1514,15 +1518,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="13"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">

--- a/extra_documentation/Codifiers.xlsx
+++ b/extra_documentation/Codifiers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc1da2a02662a9c5/Desktop/01 APFUTURA/01 APXGIS/08 DOCUSAURUS/testing-one/extra_documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{87F5616A-D165-499E-9BB7-EDB9B0F648CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AFD30D4-A361-4B2B-83C6-0D8FF1F62F4F}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{87F5616A-D165-499E-9BB7-EDB9B0F648CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{971A4A11-2882-458A-80FA-9C9434654FA2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1140" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codifiers" sheetId="2" r:id="rId1"/>
@@ -605,9 +605,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -645,7 +645,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -751,7 +751,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -893,7 +893,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -903,11 +903,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1497,14 +1497,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60209DD-C270-4B3E-9E34-9529D4BAF056}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E34" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D76" sqref="D76"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1548,7 +1547,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -1569,7 +1568,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
@@ -1590,7 +1589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1611,7 +1610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1632,7 +1631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1653,7 +1652,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1674,7 +1673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1695,7 +1694,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1716,7 +1715,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1737,7 +1736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1758,7 +1757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1779,7 +1778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1800,7 +1799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1821,7 +1820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1842,7 +1841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1863,7 +1862,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1884,7 +1883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1905,7 +1904,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1926,7 +1925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1947,7 +1946,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1968,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1989,7 +1988,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2010,7 +2009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2031,7 +2030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2052,7 +2051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2073,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2094,7 +2093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2115,7 +2114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2136,7 +2135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2157,7 +2156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2178,7 +2177,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2241,7 +2240,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2262,7 +2261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2283,7 +2282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2304,7 +2303,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2325,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2346,7 +2345,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2367,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2388,7 +2387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2409,7 +2408,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2430,7 +2429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2451,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2472,7 +2471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2493,7 +2492,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2514,7 +2513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2535,7 +2534,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2556,7 +2555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2577,7 +2576,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2598,7 +2597,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2619,7 +2618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2640,7 +2639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2661,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2682,7 +2681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2703,7 +2702,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2724,7 +2723,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2745,7 +2744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2766,7 +2765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2787,7 +2786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -2808,7 +2807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -2829,7 +2828,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -2850,7 +2849,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -2871,7 +2870,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -2892,7 +2891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -2914,13 +2913,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:F67" xr:uid="{A60209DD-C270-4B3E-9E34-9529D4BAF056}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Duct"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:F67" xr:uid="{A60209DD-C270-4B3E-9E34-9529D4BAF056}"/>
   <mergeCells count="2">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:F1"/>
